--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3538934.277881028</v>
+        <v>3635604.254365402</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7974084.245903507</v>
+        <v>7974084.245903508</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>196.2628987307824</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>123.2558368419821</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>213.6743229269905</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>57.35504593461896</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.3709516818915</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>68.19533829602391</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>140.1336128527358</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>379.4338601620132</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>117.2901100930831</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>206.6184701423858</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>86.01024646750793</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>142.3844270995959</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>196.6189992721294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>31.42165277936054</v>
       </c>
       <c r="W19" t="n">
-        <v>112.3827461036468</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>11.53882395408768</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>131.6104092336076</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>147.4042139477547</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2719,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>39.9447416048272</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>79.24267048832419</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.41670903610036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>18.26879610203984</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>117.6769141031068</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3323,13 +3325,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>122.7291074462373</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>21.61245761929081</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>199.3654827743561</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>6.876715570516814</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>7.601081015447265</v>
+        <v>42.41356576976442</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3042181925749673</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>184.2868566502274</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4364,16 +4366,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2122.807401540017</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>195.250031532787</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.250031532787</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>512.2963347852319</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V4" t="n">
-        <v>512.2963347852319</v>
+        <v>195.250031532787</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>195.250031532787</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>195.250031532787</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>195.250031532787</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.280783616703</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762915</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4562,55 +4564,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2420.580034157336</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2089.517146813766</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1736.748491543651</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941846</v>
+        <v>1363.282733282571</v>
       </c>
       <c r="Y5" t="n">
-        <v>1001.280783616703</v>
+        <v>973.1434013067596</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.1560728187101</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C7" t="n">
-        <v>259.1560728187101</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D7" t="n">
-        <v>259.1560728187101</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>259.1560728187101</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
         <v>190.2718927217162</v>
@@ -4720,10 +4722,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V7" t="n">
-        <v>259.1560728187101</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W7" t="n">
-        <v>259.1560728187101</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X7" t="n">
-        <v>259.1560728187101</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y7" t="n">
-        <v>259.1560728187101</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.347031634718</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.384514694307</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>862.1188160875561</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2347.468055183003</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="Y8" t="n">
-        <v>1975.94687169884</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>259.1560728187101</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W10" t="n">
-        <v>259.1560728187101</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5027,58 +5029,58 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>416.3606924710451</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427196</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L11" t="n">
-        <v>1797.117834600128</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.649739272053</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330835</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5124,7 +5126,7 @@
         <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>941.2797751843235</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,16 +5202,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1812.520812468749</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1812.520812468749</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V13" t="n">
-        <v>1812.520812468749</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W13" t="n">
-        <v>1523.103642431788</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>1162.072354327854</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>941.2797751843235</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551623</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1523.103642431788</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.103642431788</v>
+        <v>1344.285916731228</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.103642431788</v>
+        <v>1344.285916731228</v>
       </c>
       <c r="W16" t="n">
-        <v>1523.103642431788</v>
+        <v>1054.868746694268</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>1054.868746694268</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>1054.868746694268</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,16 +5518,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>901.0652231938166</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1352.099436442225</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O17" t="n">
         <v>3757.393206660291</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>657.5961351655762</v>
+        <v>654.9300288380085</v>
       </c>
       <c r="C19" t="n">
-        <v>657.5961351655762</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="D19" t="n">
-        <v>507.4794957532405</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
         <v>192.8867116300491</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1353.985214603226</v>
       </c>
       <c r="W19" t="n">
-        <v>885.5856860635936</v>
+        <v>1064.568044566266</v>
       </c>
       <c r="X19" t="n">
-        <v>657.5961351655762</v>
+        <v>836.5784936682483</v>
       </c>
       <c r="Y19" t="n">
-        <v>657.5961351655762</v>
+        <v>836.5784936682483</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,49 +5737,49 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L20" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2016.310259422546</v>
+        <v>2064.476622800999</v>
       </c>
       <c r="N20" t="n">
-        <v>2996.062531649192</v>
+        <v>3044.228895027646</v>
       </c>
       <c r="O20" t="n">
-        <v>3876.027181978647</v>
+        <v>3547.201365906983</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353929</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5861,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5870,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5914,13 +5916,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5932,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1577.410141987876</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1577.410141987876</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>1287.992971950915</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>1060.003421052898</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>839.2108419093676</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5984,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6023,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>578.4172407837245</v>
+        <v>691.0067194606532</v>
       </c>
       <c r="C25" t="n">
-        <v>409.4810578558177</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6172,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1304.167363856812</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V25" t="n">
-        <v>1049.482875650925</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W25" t="n">
-        <v>760.0657056139643</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X25" t="n">
-        <v>760.0657056139643</v>
+        <v>872.655184290893</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.0657056139643</v>
+        <v>872.655184290893</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,52 +6226,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6309,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6409,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>669.3382175405923</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>669.3382175405923</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6476,37 +6478,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>510.7061876676659</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6643,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>731.498766811196</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.9123359039152</v>
+        <v>510.7061876676659</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6810,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.9043113423046</v>
+        <v>3774.668018147755</v>
       </c>
       <c r="C34" t="n">
-        <v>260.9043113423046</v>
+        <v>3605.731835219848</v>
       </c>
       <c r="D34" t="n">
-        <v>260.9043113423046</v>
+        <v>3455.615195807512</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>3307.702102225119</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>4364.599222816073</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>4364.599222816073</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>4364.599222816073</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>4075.182052779112</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>4075.182052779112</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>3956.316482977994</v>
       </c>
     </row>
     <row r="35">
@@ -6923,37 +6925,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2536.15366264131</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N35" t="n">
-        <v>3082.932479700092</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O35" t="n">
-        <v>3585.904950579429</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4299.260038026375</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3253.692840158614</v>
+        <v>3603.833772467691</v>
       </c>
       <c r="C37" t="n">
-        <v>3253.692840158614</v>
+        <v>3434.897589539784</v>
       </c>
       <c r="D37" t="n">
-        <v>3253.692840158614</v>
+        <v>3284.780950127448</v>
       </c>
       <c r="E37" t="n">
-        <v>3253.692840158614</v>
+        <v>3284.780950127448</v>
       </c>
       <c r="F37" t="n">
-        <v>3106.802892660704</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G37" t="n">
-        <v>2939.100056035423</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I37" t="n">
         <v>2917.269290763412</v>
@@ -7117,28 +7119,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004075</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="T37" t="n">
-        <v>4496.535381004075</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="U37" t="n">
-        <v>4207.432514129719</v>
+        <v>4488.948855545364</v>
       </c>
       <c r="V37" t="n">
-        <v>3952.748025923832</v>
+        <v>4234.264367339478</v>
       </c>
       <c r="W37" t="n">
-        <v>3663.330855886871</v>
+        <v>4234.264367339478</v>
       </c>
       <c r="X37" t="n">
-        <v>3435.341304988854</v>
+        <v>4006.274816441461</v>
       </c>
       <c r="Y37" t="n">
-        <v>3435.341304988854</v>
+        <v>3785.482237297931</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7153,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7175,16 +7177,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
@@ -7199,10 +7201,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604875</v>
@@ -7211,7 +7213,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.4972173763014</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7357,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1473.447849159405</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U40" t="n">
-        <v>1184.344982285049</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V40" t="n">
-        <v>1184.344982285049</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W40" t="n">
-        <v>894.9278122480886</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="X40" t="n">
-        <v>666.9382613500712</v>
+        <v>1094.012861007558</v>
       </c>
       <c r="Y40" t="n">
-        <v>446.1456822065411</v>
+        <v>873.220281864028</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7418,19 +7420,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7442,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
         <v>487.9678785494859</v>
@@ -7479,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7494,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9417306852383</v>
+        <v>550.3214813792652</v>
       </c>
       <c r="C43" t="n">
-        <v>270.9417306852383</v>
+        <v>550.3214813792652</v>
       </c>
       <c r="D43" t="n">
-        <v>270.9417306852383</v>
+        <v>550.3214813792652</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7594,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570255</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590082</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154781</v>
+        <v>550.3214813792652</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>3254.420735780952</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,19 +7681,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7728,22 +7730,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.3103861854969</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="C46" t="n">
-        <v>558.37420325759</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D46" t="n">
-        <v>558.0669121539789</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E46" t="n">
         <v>410.1538185715858</v>
@@ -7807,16 +7809,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7828,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1770.195126053969</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1548.428510623496</v>
       </c>
       <c r="U46" t="n">
-        <v>1453.060509258584</v>
+        <v>1259.325643749139</v>
       </c>
       <c r="V46" t="n">
-        <v>1198.376021052697</v>
+        <v>1259.325643749139</v>
       </c>
       <c r="W46" t="n">
-        <v>908.9588510157366</v>
+        <v>969.9084737121786</v>
       </c>
       <c r="X46" t="n">
-        <v>908.9588510157366</v>
+        <v>741.9189228141613</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.9588510157366</v>
+        <v>741.9189228141613</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8234,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599039</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>411.0304280898984</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792135</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>116.5656919961588</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,10 +9175,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>60.0189488469199</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9407,19 +9409,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>48.652892301468</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>201.9664098701125</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>29.61882225792002</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,13 +10126,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>133.253057640026</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>374.169394802195</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,19 +10594,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>198.7154374299955</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>173.2204606877393</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>226.7688596193112</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11066,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>282.7041781993166</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>248.8012738805245</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>81.23657463111991</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>77.16452217657329</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>89.59283893348348</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>220.7159905444675</v>
       </c>
       <c r="W19" t="n">
-        <v>174.1402522329442</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.2931562278496</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>35.63641186502028</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.8076242578582</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24607,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>185.76491378421</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>146.466984900713</v>
       </c>
       <c r="Y31" t="n">
-        <v>182.1679443159944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.1651665445293</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>100.907739248988</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>22.69194057669391</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>123.14255729503</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>20.18346650181309</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>218.8329398185203</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>138.8328816311219</v>
+        <v>104.0203968768048</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.3112548256374</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.482168681214461</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676011.6424309341</v>
+        <v>676011.6424309342</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676011.6424309341</v>
+        <v>676011.642430934</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676011.6424309341</v>
+        <v>676011.642430934</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676011.642430934</v>
+        <v>676011.6424309341</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676011.642430934</v>
+        <v>676011.6424309342</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676011.642430934</v>
+        <v>676011.6424309341</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676011.642430934</v>
+        <v>676011.6424309341</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26316,31 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="F2" t="n">
         <v>734601.305740919</v>
       </c>
       <c r="G2" t="n">
+        <v>734601.305740919</v>
+      </c>
+      <c r="H2" t="n">
+        <v>734601.305740919</v>
+      </c>
+      <c r="I2" t="n">
         <v>734601.3057409193</v>
-      </c>
-      <c r="H2" t="n">
-        <v>734601.3057409193</v>
-      </c>
-      <c r="I2" t="n">
-        <v>734601.305740919</v>
       </c>
       <c r="J2" t="n">
         <v>734601.3057409192</v>
       </c>
       <c r="K2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="L2" t="n">
         <v>734601.3057409192</v>
@@ -26347,13 +26349,13 @@
         <v>734601.3057409191</v>
       </c>
       <c r="N2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.305740919</v>
       </c>
       <c r="O2" t="n">
+        <v>734601.3057409192</v>
+      </c>
+      <c r="P2" t="n">
         <v>734601.3057409193</v>
-      </c>
-      <c r="P2" t="n">
-        <v>734601.3057409192</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.413993407</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>192206.5963924297</v>
+      </c>
+      <c r="C4" t="n">
         <v>192206.5963924298</v>
       </c>
-      <c r="C4" t="n">
-        <v>192206.5963924297</v>
-      </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
@@ -26433,31 +26435,31 @@
         <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709186</v>
-      </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709185</v>
       </c>
     </row>
     <row r="5">
@@ -26485,19 +26487,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26509,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105569.9165459215</v>
+        <v>-105569.9165459214</v>
       </c>
       <c r="C6" t="n">
-        <v>484397.9626686232</v>
+        <v>484397.9626686231</v>
       </c>
       <c r="D6" t="n">
-        <v>484397.9626686234</v>
+        <v>484397.962668623</v>
       </c>
       <c r="E6" t="n">
-        <v>-110779.2345032936</v>
+        <v>-110779.2345032931</v>
       </c>
       <c r="F6" t="n">
         <v>616598.1794901135</v>
       </c>
       <c r="G6" t="n">
+        <v>616598.1794901135</v>
+      </c>
+      <c r="H6" t="n">
+        <v>616598.1794901135</v>
+      </c>
+      <c r="I6" t="n">
         <v>616598.1794901139</v>
       </c>
-      <c r="H6" t="n">
-        <v>616598.1794901139</v>
-      </c>
-      <c r="I6" t="n">
-        <v>616598.1794901135</v>
-      </c>
       <c r="J6" t="n">
-        <v>440174.9602975209</v>
+        <v>440174.9602975207</v>
       </c>
       <c r="K6" t="n">
-        <v>616598.1794901135</v>
+        <v>616598.1794901136</v>
       </c>
       <c r="L6" t="n">
         <v>616598.1794901137</v>
@@ -26555,13 +26557,13 @@
         <v>486955.8646511688</v>
       </c>
       <c r="N6" t="n">
-        <v>616598.1794901136</v>
+        <v>616598.1794901135</v>
       </c>
       <c r="O6" t="n">
-        <v>616598.1794901139</v>
+        <v>616598.1794901137</v>
       </c>
       <c r="P6" t="n">
-        <v>616598.1794901137</v>
+        <v>616598.1794901134</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.033036376212</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>169.0099930402252</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>225.9851318754309</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>8.721493802914011</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>72.60755131498726</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>193.8691215736703</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.8669869741621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>77.22570972690734</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>112.0040304710922</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.496509910248619</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>99.15821026457473</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>45.51917318144223</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>22.54869530067501</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32330,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32798,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33029,13 +33031,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -34214,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353143</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898681</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35269,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>324.040058608738</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>866.6205424822307</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502535</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35884,7 +35886,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>453.7569785515593</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35893,10 +35895,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>568.071949735139</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35978,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>587.5740081316949</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>600.7283960894844</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,16 +36372,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36446,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>89.2320208001448</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36844,13 +36846,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>384.0473624437454</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37069,22 +37071,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>926.4712302151065</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37312,19 +37314,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>751.017272842907</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>424.0147654914588</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37543,10 +37545,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>682.3589740116433</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37555,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37786,22 +37788,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>835.0060136122281</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>801.1031092934362</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609554</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
